--- a/biology/Histoire de la zoologie et de la botanique/Cyrus_Thomas/Cyrus_Thomas.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cyrus_Thomas/Cyrus_Thomas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrus Thomas (27 juillet 1825 à Kingsport dans l'État du Tennessee aux États-Unis - 26 juin 1910) était un ethnologue américain et un entomologiste de premier plan de la fin du XIXe siècle. Il était membre du Bureau of American Ethnology. 
 Il est connu pour ses études sur l'histoire naturelle de l'Ouest américain.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas était d'origine allemande et irlandaise. De 1851 à 1854, il a servi de clerc du comté Jackson.
 En 1869 il rejoignit l'expédition de Ferdinand Vandeveer Hayden, qui avait organisé une équipe de scientifiques, pour l'exploration des Montagnes Rocheuses. Avant ceci, cependant, Thomas avait acquis un fort intérêt pour l'histoire naturelle et en 1858 il a fondé la Société d'histoire naturelle de l'Illinois. Il y étudia plus spécialement les insectes, découvrit que c'était la Hessian fly '(la mouche de Toile de jute ?), qui réduisait à néant la récolte de blé et de seigle des États de l'Ouest des USA.
